--- a/grape_flavors.xlsx
+++ b/grape_flavors.xlsx
@@ -10,17 +10,14 @@
     <sheet name="grape_flavors" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grape_flavors!$A$1:$K$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grape_flavors!$A$1:$K$103</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="217">
-  <si>
-    <t>grape_variety</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="217">
   <si>
     <t>noble_international</t>
   </si>
@@ -28,12 +25,6 @@
     <t>monovarietal</t>
   </si>
   <si>
-    <t>abv_%</t>
-  </si>
-  <si>
-    <t>serve_temp_c</t>
-  </si>
-  <si>
     <t>taste_dry-sweet</t>
   </si>
   <si>
@@ -61,24 +52,12 @@
     <t>True</t>
   </si>
   <si>
-    <t>13,5 - 15</t>
-  </si>
-  <si>
-    <t>15 - 20</t>
-  </si>
-  <si>
     <t>white pepper, black cherry, smoke, game, spiced plum</t>
   </si>
   <si>
     <t>Albariño</t>
   </si>
   <si>
-    <t>11,5 - 13,5</t>
-  </si>
-  <si>
-    <t>3 - 7</t>
-  </si>
-  <si>
     <t>lemon zest, grapefruit, honeydew melon, nectarine, saline</t>
   </si>
   <si>
@@ -91,9 +70,6 @@
     <t>Arinto</t>
   </si>
   <si>
-    <t>7 - 12</t>
-  </si>
-  <si>
     <t>lemon zest, grapefruit, hazelnut, beeswax, chamomile</t>
   </si>
   <si>
@@ -220,12 +196,6 @@
     <t>Gamay</t>
   </si>
   <si>
-    <t>10 - 11,5</t>
-  </si>
-  <si>
-    <t>12 - 15</t>
-  </si>
-  <si>
     <t>pomegranate, blackberry bramble, violet, potting soil, peony</t>
   </si>
   <si>
@@ -268,9 +238,6 @@
     <t>Grenache</t>
   </si>
   <si>
-    <t>&gt; 15</t>
-  </si>
-  <si>
     <t>stewed strawberry, grilled plum, leather, dried herbs, blood orange</t>
   </si>
   <si>
@@ -361,9 +328,6 @@
     <t>Muscat Blanc à Petits Grains</t>
   </si>
   <si>
-    <t>&lt; 10</t>
-  </si>
-  <si>
     <t>orange blossom, meyer lemon, mandarin orange, pear, honeysuckle</t>
   </si>
   <si>
@@ -391,9 +355,6 @@
     <t>dried cherry, orange zest, dried thyme, allspice, crushed gravel</t>
   </si>
   <si>
-    <t>Nero d'Avola</t>
-  </si>
-  <si>
     <t>black cherry, black plum, licorice, tobacco, chili pepper</t>
   </si>
   <si>
@@ -460,9 +421,6 @@
     <t>Port</t>
   </si>
   <si>
-    <t>20 - 22</t>
-  </si>
-  <si>
     <t>blueberry, vanilla, milk chocolate, raspberry, cinnamon</t>
   </si>
   <si>
@@ -668,12 +626,57 @@
   </si>
   <si>
     <t>red cherry, raspberry, black pepper, licorice, chocolate</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>avg_serve_temp_c</t>
+  </si>
+  <si>
+    <t>avg_abv_%</t>
+  </si>
+  <si>
+    <t>Nero D'Avola</t>
+  </si>
+  <si>
+    <t>Pinot Noir-Chardonnay-Pinot Meunier</t>
+  </si>
+  <si>
+    <t>Cabernet Sauvignon-Merlot-Other Bordeaux</t>
+  </si>
+  <si>
+    <t>Sauvignon Blanc-Sémillon-Other Bordeaux</t>
+  </si>
+  <si>
+    <t>Grenache-Syrah-Mourvèdre/Monastrell</t>
+  </si>
+  <si>
+    <t>Marsanne-Roussane-Viognier</t>
+  </si>
+  <si>
+    <t>black currant, black cherry, graphite, chocolate, dried herbs</t>
+  </si>
+  <si>
+    <t>grapefruit, gooseberry, lemon curd, chamomile, lemongrass</t>
+  </si>
+  <si>
+    <t>raspberry, blackberry, rosemary, baking spices, lavender</t>
+  </si>
+  <si>
+    <t>meyer lemon, apricot, beeswax, orange zest, brioche</t>
+  </si>
+  <si>
+    <t>yellow apple, pomegranate, vanilla, cherry, butter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -733,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,10 +750,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,19 +1053,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
@@ -1070,159 +1077,159 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E4" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9.5</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1240,24 +1247,24 @@
         <v>3</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9.5</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1275,24 +1282,24 @@
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E7" s="8">
+        <v>17.5</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1310,24 +1317,24 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E8" s="8">
+        <v>17.5</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -1345,24 +1352,24 @@
         <v>4</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>17.5</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1380,24 +1387,24 @@
         <v>3</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>17.5</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1415,24 +1422,24 @@
         <v>3</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E11" s="8">
+        <v>17.5</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -1450,24 +1457,24 @@
         <v>4</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E12" s="9">
+        <v>17.5</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -1485,24 +1492,24 @@
         <v>4</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E13" s="9">
+        <v>17.5</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -1520,24 +1527,24 @@
         <v>4</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E14" s="9">
+        <v>17.5</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -1555,24 +1562,24 @@
         <v>4</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D15" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>17.5</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -1590,24 +1597,24 @@
         <v>4</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E16" s="9">
+        <v>17.5</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1625,24 +1632,24 @@
         <v>4</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E17" s="8">
+        <v>17.5</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -1660,24 +1667,24 @@
         <v>4</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E18" s="8">
+        <v>17.5</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -1695,24 +1702,24 @@
         <v>4</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E19" s="8">
+        <v>9.5</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -1730,24 +1737,24 @@
         <v>4</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E20" s="8">
+        <v>9.5</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -1765,24 +1772,24 @@
         <v>3</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D21" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>9.5</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1800,24 +1807,24 @@
         <v>3</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D22" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>17.5</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -1835,24 +1842,24 @@
         <v>3</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D23" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9.5</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -1870,24 +1877,24 @@
         <v>3</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E24" s="8">
+        <v>9.5</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -1905,24 +1912,24 @@
         <v>3</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D25" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9.5</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -1940,24 +1947,24 @@
         <v>3</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="E26" s="8">
+        <v>13.5</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -1975,24 +1982,24 @@
         <v>2</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E27" s="8">
+        <v>9.5</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -2010,24 +2017,24 @@
         <v>3</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D28" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E28" s="8">
+        <v>9.5</v>
       </c>
       <c r="F28" s="4">
         <v>3</v>
@@ -2045,24 +2052,24 @@
         <v>4</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -2080,24 +2087,24 @@
         <v>3</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D30" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E30" s="8">
+        <v>9.5</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -2115,24 +2122,24 @@
         <v>4</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D31" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E31" s="8">
+        <v>17.5</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -2150,24 +2157,24 @@
         <v>4</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D32" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E32" s="8">
+        <v>9.5</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -2185,24 +2192,24 @@
         <v>3</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D33" s="11">
+        <v>16</v>
+      </c>
+      <c r="E33" s="8">
+        <v>17.5</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -2220,24 +2227,24 @@
         <v>5</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D34" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E34" s="8">
+        <v>9.5</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -2255,24 +2262,24 @@
         <v>4</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E35" s="8">
+        <v>9.5</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -2290,24 +2297,24 @@
         <v>3</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D36" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E36" s="8">
+        <v>9.5</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
@@ -2325,24 +2332,24 @@
         <v>3</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D37" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E37" s="8">
+        <v>13.5</v>
       </c>
       <c r="F37" s="4">
         <v>2</v>
@@ -2360,24 +2367,24 @@
         <v>3</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D38" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="E38" s="8">
+        <v>9.5</v>
       </c>
       <c r="F38" s="4">
         <v>2</v>
@@ -2395,24 +2402,24 @@
         <v>2</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D39" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E39" s="8">
+        <v>17.5</v>
       </c>
       <c r="F39" s="4">
         <v>2</v>
@@ -2430,24 +2437,24 @@
         <v>4</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D40" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E40" s="9">
+        <v>17.5</v>
       </c>
       <c r="F40" s="4">
         <v>2</v>
@@ -2465,24 +2472,24 @@
         <v>4</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D41" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E41" s="8">
+        <v>9.5</v>
       </c>
       <c r="F41" s="4">
         <v>2</v>
@@ -2500,24 +2507,24 @@
         <v>4</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D42" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="E42" s="8">
+        <v>5</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -2535,24 +2542,24 @@
         <v>2</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D43" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E43" s="8">
+        <v>13.5</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
@@ -2570,24 +2577,24 @@
         <v>4</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D44" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E44" s="8">
+        <v>17.5</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -2605,24 +2612,24 @@
         <v>4</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D45" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E45" s="8">
+        <v>17.5</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
@@ -2640,24 +2647,24 @@
         <v>3</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D46" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E46" s="8">
+        <v>17.5</v>
       </c>
       <c r="F46" s="4">
         <v>2</v>
@@ -2675,24 +2682,24 @@
         <v>4</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D47" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E47" s="8">
+        <v>5</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -2710,24 +2717,24 @@
         <v>3</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D48" s="11">
+        <v>9</v>
+      </c>
+      <c r="E48" s="8">
+        <v>9.5</v>
       </c>
       <c r="F48" s="4">
         <v>3</v>
@@ -2745,24 +2752,24 @@
         <v>1</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D49" s="11">
+        <v>9</v>
+      </c>
+      <c r="E49" s="8">
+        <v>13.5</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -2780,24 +2787,24 @@
         <v>1</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D50" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E50" s="8">
+        <v>13.5</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2815,24 +2822,24 @@
         <v>4</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D51" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E51" s="8">
+        <v>17.5</v>
       </c>
       <c r="F51" s="4">
         <v>2</v>
@@ -2850,24 +2857,24 @@
         <v>4</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D52" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E52" s="8">
+        <v>13.5</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2885,24 +2892,24 @@
         <v>3</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D53" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E53" s="8">
+        <v>17.5</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
@@ -2920,24 +2927,24 @@
         <v>4</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D54" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E54" s="8">
+        <v>9.5</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
@@ -2955,24 +2962,24 @@
         <v>3</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D55" s="11">
+        <v>9</v>
+      </c>
+      <c r="E55" s="8">
+        <v>13.5</v>
       </c>
       <c r="F55" s="4">
         <v>5</v>
@@ -2990,24 +2997,24 @@
         <v>1</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D56" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E56" s="8">
+        <v>9.5</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -3025,24 +3032,24 @@
         <v>3</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D57" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E57" s="8">
+        <v>17.5</v>
       </c>
       <c r="F57" s="4">
         <v>2</v>
@@ -3060,24 +3067,24 @@
         <v>4</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D58" s="11">
+        <v>16</v>
+      </c>
+      <c r="E58" s="8">
+        <v>17.5</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -3095,24 +3102,24 @@
         <v>5</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D59" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E59" s="8">
+        <v>9.5</v>
       </c>
       <c r="F59" s="4">
         <v>2</v>
@@ -3130,24 +3137,24 @@
         <v>4</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D60" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E60" s="8">
+        <v>9.5</v>
       </c>
       <c r="F60" s="4">
         <v>2</v>
@@ -3165,24 +3172,24 @@
         <v>3</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D61" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="E61" s="8">
+        <v>13.5</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -3200,24 +3207,24 @@
         <v>2</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D62" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E62" s="8">
+        <v>13.5</v>
       </c>
       <c r="F62" s="4">
         <v>2</v>
@@ -3235,24 +3242,24 @@
         <v>3</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D63" s="11">
+        <v>16</v>
+      </c>
+      <c r="E63" s="8">
+        <v>17.5</v>
       </c>
       <c r="F63" s="4">
         <v>2</v>
@@ -3270,24 +3277,24 @@
         <v>5</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D64" s="10">
+        <v>21</v>
+      </c>
+      <c r="E64" s="9">
+        <v>17.5</v>
       </c>
       <c r="F64" s="4">
         <v>5</v>
@@ -3305,24 +3312,24 @@
         <v>5</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D65" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E65" s="9">
+        <v>17.5</v>
       </c>
       <c r="F65" s="4">
         <v>2</v>
@@ -3340,24 +3347,24 @@
         <v>4</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D66" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E66" s="8">
+        <v>9.5</v>
       </c>
       <c r="F66" s="4">
         <v>2</v>
@@ -3375,24 +3382,24 @@
         <v>3</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D67" s="11">
+        <v>9</v>
+      </c>
+      <c r="E67" s="8">
+        <v>5</v>
       </c>
       <c r="F67" s="4">
         <v>3</v>
@@ -3410,24 +3417,24 @@
         <v>1</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D68" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="E68" s="9">
+        <v>9.5</v>
       </c>
       <c r="F68" s="4">
         <v>2</v>
@@ -3445,24 +3452,24 @@
         <v>3</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D69" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E69" s="8">
+        <v>9.5</v>
       </c>
       <c r="F69" s="4">
         <v>2</v>
@@ -3480,24 +3487,24 @@
         <v>4</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D70" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E70" s="8">
+        <v>17.5</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -3515,24 +3522,24 @@
         <v>4</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D71" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E71" s="8">
+        <v>17.5</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -3550,24 +3557,24 @@
         <v>4</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D72" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E72" s="8">
+        <v>9.5</v>
       </c>
       <c r="F72" s="4">
         <v>2</v>
@@ -3585,24 +3592,24 @@
         <v>3</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D73" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="E73" s="9">
+        <v>9.5</v>
       </c>
       <c r="F73" s="4">
         <v>2</v>
@@ -3620,24 +3627,24 @@
         <v>3</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D74" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E74" s="8">
+        <v>9.5</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -3655,24 +3662,24 @@
         <v>3</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D75" s="10">
+        <v>21</v>
+      </c>
+      <c r="E75" s="9">
+        <v>9.5</v>
       </c>
       <c r="F75" s="4">
         <v>4</v>
@@ -3690,24 +3697,24 @@
         <v>5</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D76" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="E76" s="9">
+        <v>9.5</v>
       </c>
       <c r="F76" s="4">
         <v>3</v>
@@ -3725,24 +3732,24 @@
         <v>3</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D77" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E77" s="8">
+        <v>13.5</v>
       </c>
       <c r="F77" s="4">
         <v>2</v>
@@ -3760,24 +3767,24 @@
         <v>3</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D78" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E78" s="8">
+        <v>5</v>
       </c>
       <c r="F78" s="4">
         <v>2</v>
@@ -3795,24 +3802,24 @@
         <v>3</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D79" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E79" s="8">
+        <v>17.5</v>
       </c>
       <c r="F79" s="4">
         <v>2</v>
@@ -3830,24 +3837,24 @@
         <v>4</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D80" s="11">
+        <v>14.25</v>
+      </c>
+      <c r="E80" s="9">
+        <v>17.5</v>
       </c>
       <c r="F80" s="4">
         <v>2</v>
@@ -3865,24 +3872,24 @@
         <v>4</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D81" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E81" s="8">
+        <v>17.5</v>
       </c>
       <c r="F81" s="4">
         <v>2</v>
@@ -3900,24 +3907,24 @@
         <v>4</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D82" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E82" s="8">
+        <v>17.5</v>
       </c>
       <c r="F82" s="4">
         <v>2</v>
@@ -3935,24 +3942,24 @@
         <v>4</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D83" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E83" s="8">
+        <v>17.5</v>
       </c>
       <c r="F83" s="4">
         <v>2</v>
@@ -3970,24 +3977,24 @@
         <v>4</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D84" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E84" s="8">
+        <v>17.5</v>
       </c>
       <c r="F84" s="4">
         <v>2</v>
@@ -4005,24 +4012,24 @@
         <v>4</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D85" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E85" s="8">
+        <v>5</v>
       </c>
       <c r="F85" s="4">
         <v>2</v>
@@ -4040,24 +4047,24 @@
         <v>3</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D86" s="11">
+        <v>16</v>
+      </c>
+      <c r="E86" s="8">
+        <v>17.5</v>
       </c>
       <c r="F86" s="4">
         <v>2</v>
@@ -4075,24 +4082,24 @@
         <v>5</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D87" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E87" s="8">
+        <v>9.5</v>
       </c>
       <c r="F87" s="4">
         <v>2</v>
@@ -4110,24 +4117,24 @@
         <v>3</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D88" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E88" s="8">
+        <v>9.5</v>
       </c>
       <c r="F88" s="4">
         <v>2</v>
@@ -4145,24 +4152,24 @@
         <v>3</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D89" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E89" s="8">
+        <v>5</v>
       </c>
       <c r="F89" s="4">
         <v>2</v>
@@ -4180,24 +4187,24 @@
         <v>3</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D90" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E90" s="8">
+        <v>9.5</v>
       </c>
       <c r="F90" s="4">
         <v>2</v>
@@ -4215,24 +4222,24 @@
         <v>4</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D91" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E91" s="8">
+        <v>5</v>
       </c>
       <c r="F91" s="4">
         <v>2</v>
@@ -4250,24 +4257,24 @@
         <v>3</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D92" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E92" s="8">
+        <v>9.5</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -4285,24 +4292,24 @@
         <v>3</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D93" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E93" s="8">
+        <v>9.5</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -4320,24 +4327,24 @@
         <v>3</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D94" s="10">
+        <v>14.25</v>
+      </c>
+      <c r="E94" s="8">
+        <v>9.5</v>
       </c>
       <c r="F94" s="4">
         <v>2</v>
@@ -4355,24 +4362,24 @@
         <v>4</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="D95" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E95" s="8">
+        <v>9.5</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -4390,24 +4397,24 @@
         <v>3</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D96" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="E96" s="9">
+        <v>9.5</v>
       </c>
       <c r="F96" s="4">
         <v>2</v>
@@ -4425,24 +4432,24 @@
         <v>3</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D97" s="11">
+        <v>16</v>
+      </c>
+      <c r="E97" s="8">
+        <v>17.5</v>
       </c>
       <c r="F97" s="4">
         <v>2</v>
@@ -4460,42 +4467,217 @@
         <v>5</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E98" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4">
+        <v>2</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2</v>
+      </c>
+      <c r="I98" s="4">
+        <v>4</v>
+      </c>
+      <c r="J98" s="4">
+        <v>3</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="E99" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4">
+        <v>3</v>
+      </c>
+      <c r="H99" s="4">
+        <v>2</v>
+      </c>
+      <c r="I99" s="4">
+        <v>4</v>
+      </c>
+      <c r="J99" s="4">
+        <v>3</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="12">
+        <v>14.25</v>
+      </c>
+      <c r="E100" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4">
+        <v>5</v>
+      </c>
+      <c r="H100" s="4">
+        <v>5</v>
+      </c>
+      <c r="I100" s="4">
+        <v>3</v>
+      </c>
+      <c r="J100" s="4">
+        <v>4</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="E101" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>4</v>
+      </c>
+      <c r="J101" s="4">
+        <v>3</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="12">
+        <v>14.25</v>
+      </c>
+      <c r="E102" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" s="4">
+        <v>4</v>
+      </c>
+      <c r="H102" s="4">
+        <v>4</v>
+      </c>
+      <c r="I102" s="4">
+        <v>3</v>
+      </c>
+      <c r="J102" s="4">
+        <v>4</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="12">
+        <v>14.25</v>
+      </c>
+      <c r="E103" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="F103" s="4">
+        <v>2</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2</v>
+      </c>
+      <c r="J103" s="4">
+        <v>4</v>
+      </c>
+      <c r="K103" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F98" s="4">
-        <v>2</v>
-      </c>
-      <c r="G98" s="4">
-        <v>2</v>
-      </c>
-      <c r="H98" s="4">
-        <v>2</v>
-      </c>
-      <c r="I98" s="4">
-        <v>4</v>
-      </c>
-      <c r="J98" s="4">
-        <v>3</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
